--- a/docs/odh/shr-core-ResearchSubject-model.xlsx
+++ b/docs/odh/shr-core-ResearchSubject-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="79">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-ResearchSubject-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-ResearchSubject-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,17 +195,37 @@
     <t>shr-core-ResearchSubject-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>Business identifier or external id for this resource.</t>
   </si>
   <si>
+    <t>shr-core-ResearchSubject-model.participationPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time or span of time the participant is involved.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchSubject-model.researchStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ResearchStudy-model]]}
+</t>
+  </si>
+  <si>
+    <t>A clinical trial or similar research study. Reference: list of FDA data elements describing a research study: prsinfo.clinicaltrials.gov/definitions.html</t>
+  </si>
+  <si>
     <t>shr-core-ResearchSubject-model.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
@@ -217,36 +233,27 @@
   </si>
   <si>
     <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
-SHR follows Argonaut and makes the value set binding on marital status required. SHR also adds optional extensions on communication ability to more fully characterize language skills.
-MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
 </t>
   </si>
   <si>
-    <t>shr-core-ResearchSubject-model.researchStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchStudy-model]]}
+    <t>shr-core-ResearchSubject-model.assignedArm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A clinical trial or similar research study. Reference: list of FDA data elements describing a research study: prsinfo.clinicaltrials.gov/definitions.html</t>
-  </si>
-  <si>
-    <t>shr-core-ResearchSubject-model.participationPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The point in time or span of time the participant is involved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1948053
-</t>
+    <t>The name of the arm in the study the subject is expected to follow as part of this study.</t>
+  </si>
+  <si>
+    <t>shr-core-ResearchSubject-model.actualArm</t>
+  </si>
+  <si>
+    <t>The name of the arm in the study the subject actually followed as part of this study.</t>
   </si>
   <si>
     <t>shr-core-ResearchSubject-model.terminationReason</t>
@@ -255,7 +262,7 @@
     <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ResearchSubjectTerminationReasonVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-ResearchSubjectTerminationReasonVS</t>
   </si>
 </sst>
 </file>
@@ -404,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -437,7 +444,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.03125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -816,7 +823,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -848,7 +855,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -871,13 +878,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -928,7 +935,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -945,7 +952,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -968,13 +975,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1025,7 +1032,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1042,7 +1049,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1068,10 +1075,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1098,11 +1105,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1120,7 +1127,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1137,7 +1144,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1160,13 +1167,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1217,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1234,7 +1241,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1257,13 +1264,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1299,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1314,7 +1321,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1331,7 +1338,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1354,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1411,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1428,7 +1435,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1451,13 +1458,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1493,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1508,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1525,7 +1532,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1548,13 +1555,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1581,11 +1588,13 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>36</v>
@@ -1603,7 +1612,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1618,8 +1627,200 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI12">
+  <autoFilter ref="A1:AI14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1629,7 +1830,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI11">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
